--- a/DATA_goal/Junction_Flooding_425.xlsx
+++ b/DATA_goal/Junction_Flooding_425.xlsx
@@ -446,10 +446,10 @@
     <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="6" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
@@ -461,8 +461,8 @@
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="6" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="6" customWidth="1" min="22" max="22"/>
     <col width="6" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44784.17361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.35</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1</v>
+        <v>10.02</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.74</v>
+        <v>7.4</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.26</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.05</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.14</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>5.46</v>
+        <v>54.64</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.07</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.3</v>
+        <v>2.96</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.64</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.18</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.52</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.42</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.16</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.2</v>
+        <v>2.01</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.87</v>
+        <v>8.69</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.48</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.18</v>
+        <v>11.8</v>
       </c>
       <c r="I3" s="4" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>43.79</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>6.03</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.51</v>
       </c>
-      <c r="J3" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.66</v>
+        <v>6.58</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.26</v>
+        <v>2.59</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.35</v>
+        <v>3.47</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.45</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.47</v>
+        <v>4.69</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.06</v>
+        <v>10.59</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.85</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.06</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.51</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.94</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.76</v>
+        <v>7.59</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.79</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.52</v>
+        <v>5.15</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.32</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="L4" s="4" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S4" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>43.92</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Y4" s="4" t="n">
         <v>0.47</v>
       </c>
-      <c r="M4" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="N4" s="4" t="n">
+      <c r="Z4" s="4" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="AA4" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AB4" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AC4" s="4" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD4" s="4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="AE4" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T4" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="U4" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="V4" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="W4" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="X4" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="Y4" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z4" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AA4" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AB4" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AC4" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="AD4" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AE4" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="AF4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.54</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.68</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.35</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.92</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.05</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.23</v>
+        <v>2.29</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.73</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.44</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.27</v>
+        <v>2.7</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.57</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.2</v>
+        <v>2.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.85</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>2.68</v>
+        <v>26.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.42</v>
+        <v>4.16</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.74</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.72</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.88</v>
+        <v>8.85</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.28</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_425.xlsx
+++ b/DATA_goal/Junction_Flooding_425.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45106.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.35</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.03</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.78</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.02</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>8.94</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.48</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9.15</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.85</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.5</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.03</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.4</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.26</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.73</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.37</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.74</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.05</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>54.64</v>
+        <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>11.07</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.96</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.58</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.91</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.76</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.64</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.12</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.18</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.52</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.42</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>7.16</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.01</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.4</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45106.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.91</v>
+        <v>13.183</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.67</v>
+        <v>10.227</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.46</v>
+        <v>0.82</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>8.69</v>
+        <v>27.862</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.5</v>
+        <v>23.8</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.48</v>
+        <v>9.964</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.8</v>
+        <v>34.452</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.07</v>
+        <v>15.134</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.28</v>
+        <v>6.943</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.28</v>
+        <v>10.879</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.12</v>
+        <v>11.591</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.7</v>
+        <v>11.731</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.78</v>
+        <v>3.163</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.94</v>
+        <v>9.955</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.84</v>
+        <v>14.332</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.71</v>
+        <v>8.27</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.698</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.194</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>43.79</v>
+        <v>146.788</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.42</v>
+        <v>27.924</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.61</v>
+        <v>9.087999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.03</v>
+        <v>18.702</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.87</v>
+        <v>10.478</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.51</v>
+        <v>1.354</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.58</v>
+        <v>18.899</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.59</v>
+        <v>7.655</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.47</v>
+        <v>8.295</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.45</v>
+        <v>8.156000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.69</v>
+        <v>12.04</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>10.59</v>
+        <v>30.582</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.85</v>
+        <v>5.609</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.67</v>
+        <v>11.403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45106.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.06</v>
+        <v>6.894</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.51</v>
+        <v>5.339</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.469</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.94</v>
+        <v>14.4</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.59</v>
+        <v>12.427</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.44</v>
+        <v>5.114</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.79</v>
+        <v>22.625</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.15</v>
+        <v>7.788</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.32</v>
+        <v>3.639</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4</v>
+        <v>5.691</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.67</v>
+        <v>6</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.8</v>
+        <v>6.09</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.88</v>
+        <v>1.649</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.08</v>
+        <v>5.118</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.84</v>
+        <v>7.482</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.76</v>
+        <v>4.301</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.459</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.045</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>43.92</v>
+        <v>72.566</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.41</v>
+        <v>14.577</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.75</v>
+        <v>4.659</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.15</v>
+        <v>9.805</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.72</v>
+        <v>5.499</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.47</v>
+        <v>0.699</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.71</v>
+        <v>11.722</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.63</v>
+        <v>3.869</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.11</v>
+        <v>4.444</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.6</v>
+        <v>4.185</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.44</v>
+        <v>6.283</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.54</v>
+        <v>20.425</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.87</v>
+        <v>2.962</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.73</v>
+        <v>5.863</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45106.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.68</v>
+        <v>20.31</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.35</v>
+        <v>15.36</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.85</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.92</v>
+        <v>43.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>5.05</v>
+        <v>36.54</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.29</v>
+        <v>15.74</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>9.73</v>
+        <v>58.34</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.44</v>
+        <v>24.18</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.57</v>
+        <v>10.95</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.7</v>
+        <v>16.56</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.18</v>
+        <v>17.69</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.51</v>
+        <v>18.56</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.57</v>
+        <v>5.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.03</v>
+        <v>15.67</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.25</v>
+        <v>22.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.85</v>
+        <v>13.05</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.48</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>26.84</v>
+        <v>232.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>6.34</v>
+        <v>43.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.79</v>
+        <v>14.42</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.16</v>
+        <v>29.68</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.54</v>
+        <v>15.87</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.31</v>
+        <v>2.07</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5</v>
+        <v>29.5</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.74</v>
+        <v>12.55</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.12</v>
+        <v>11.8</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.72</v>
+        <v>13.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.99</v>
+        <v>18.61</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.85</v>
+        <v>52.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.28</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.47</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.76</v>
+        <v>18.06</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_425.xlsx
+++ b/DATA_goal/Junction_Flooding_425.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,31 +443,31 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -475,7 +475,7 @@
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45106.50694444445</v>
+        <v>44784.17361111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.96</v>
+        <v>4.347</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.926</v>
+        <v>5.032</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.074</v>
+        <v>0.777</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>9.69</v>
+        <v>10.022</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.442</v>
+        <v>8.942</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.413</v>
+        <v>4.483</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.191000000000001</v>
+        <v>9.151999999999999</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.526</v>
+        <v>5.852</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.102</v>
+        <v>2.498</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.543</v>
+        <v>6.03</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.171</v>
+        <v>7.398</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>3.55</v>
+        <v>4.257</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.877</v>
+        <v>0.73</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.454</v>
+        <v>3.371</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.766</v>
+        <v>5.736</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.485</v>
+        <v>3.045</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.205</v>
+        <v>0.138</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0</v>
+        <v>0.227</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>48.94</v>
+        <v>54.637</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.632</v>
+        <v>11.069</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.995</v>
+        <v>2.959</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.545</v>
+        <v>6.58</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.641</v>
+        <v>4.913</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.661</v>
+        <v>0.755</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.552</v>
+        <v>5.641</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.905</v>
+        <v>3.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.889</v>
+        <v>5.177</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.236</v>
+        <v>2.517</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.485</v>
+        <v>6.419</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>0.192</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.812</v>
+        <v>7.159</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.376</v>
+        <v>2.015</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.752</v>
+        <v>4.399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45106.51388888889</v>
+        <v>44784.18055555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>13.183</v>
+        <v>3.913</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.227</v>
+        <v>3.668</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.459</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.862</v>
+        <v>8.69</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>23.8</v>
+        <v>7.504</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.964</v>
+        <v>3.481</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>34.452</v>
+        <v>11.798</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.134</v>
+        <v>5.069</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.943</v>
+        <v>2.284</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.879</v>
+        <v>4.278</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.591</v>
+        <v>5.124</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.731</v>
+        <v>3.702</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.163</v>
+        <v>0.777</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.955</v>
+        <v>2.944</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.332</v>
+        <v>4.84</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.27</v>
+        <v>2.711</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.698</v>
+        <v>0.028</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.194</v>
+        <v>0.13</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>146.788</v>
+        <v>43.791</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>27.924</v>
+        <v>9.417999999999999</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.087999999999999</v>
+        <v>2.607</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.702</v>
+        <v>6.028</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.478</v>
+        <v>3.867</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.354</v>
+        <v>0.508</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.899</v>
+        <v>6.584</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.655</v>
+        <v>2.588</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.295</v>
+        <v>3.469</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.156000000000001</v>
+        <v>2.451</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.04</v>
+        <v>4.689</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.033</v>
+        <v>0.115</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>30.582</v>
+        <v>10.59</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.609</v>
+        <v>1.849</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.403</v>
+        <v>3.667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45106.52083333334</v>
+        <v>44784.1875</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.894</v>
+        <v>4.056</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.339</v>
+        <v>3.507</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.469</v>
+        <v>0.358</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.4</v>
+        <v>8.936999999999999</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>12.427</v>
+        <v>7.594</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.114</v>
+        <v>3.437</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>22.625</v>
+        <v>12.795</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>7.788</v>
+        <v>5.154</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.639</v>
+        <v>2.319</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>5.691</v>
+        <v>4</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6</v>
+        <v>4.667</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.09</v>
+        <v>3.796</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.649</v>
+        <v>0.875</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.118</v>
+        <v>3.079</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.482</v>
+        <v>4.837</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.301</v>
+        <v>2.762</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.459</v>
+        <v>0.022</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.045</v>
+        <v>0.105</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>72.566</v>
+        <v>43.92</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>14.577</v>
+        <v>9.41</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.659</v>
+        <v>2.753</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.805</v>
+        <v>6.153</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.499</v>
+        <v>3.718</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.699</v>
+        <v>0.474</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.722</v>
+        <v>6.715</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.869</v>
+        <v>2.632</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.444</v>
+        <v>3.106</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.185</v>
+        <v>2.599</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.283</v>
+        <v>4.436</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>20.425</v>
+        <v>11.537</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.962</v>
+        <v>1.872</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>5.863</v>
+        <v>3.73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45106.52777777778</v>
+        <v>44784.19444444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>20.31</v>
+        <v>2.681</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>15.36</v>
+        <v>2.352</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.85</v>
+        <v>0.258</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>43.72</v>
+        <v>5.923</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>36.54</v>
+        <v>5.046</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>15.74</v>
+        <v>2.288</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>58.34</v>
+        <v>9.728999999999999</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>24.18</v>
+        <v>3.442</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>10.95</v>
+        <v>1.57</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>16.56</v>
+        <v>2.699</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>17.69</v>
+        <v>3.183</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>18.56</v>
+        <v>2.512</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.04</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>15.67</v>
+        <v>2.025</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>22.53</v>
+        <v>3.254</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>13.05</v>
+        <v>1.846</v>
       </c>
       <c r="R5" s="4" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>26.836</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>6.336</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>4.163</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>2.537</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.314</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>5.002</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.124</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>1.718</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>2.991</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>8.846</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.275</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>2.466</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44784.20137731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>0.48</v>
       </c>
-      <c r="S5" s="4" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>232.84</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>14.42</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>29.68</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>15.87</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>13.11</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>18.61</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>52.53</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>18.06</v>
+      <c r="AH6" s="4" t="n">
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_425.xlsx
+++ b/DATA_goal/Junction_Flooding_425.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,31 +443,31 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
@@ -475,7 +475,7 @@
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44784.17361111111</v>
+        <v>45106.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.347</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.032</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.777</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>10.022</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>8.942</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.483</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>9.151999999999999</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.852</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.498</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.03</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.398</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.257</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.73</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.371</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.736</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>3.045</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.138</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.227</v>
+        <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>54.637</v>
+        <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>11.069</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.959</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>6.58</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.913</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.755</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>5.641</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>3.12</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.177</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.517</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>6.419</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.192</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>7.159</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.015</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>4.399</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44784.18055555555</v>
+        <v>45106.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>3.913</v>
+        <v>13.183</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>3.668</v>
+        <v>10.227</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.459</v>
+        <v>0.82</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>8.69</v>
+        <v>27.862</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>7.504</v>
+        <v>23.8</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>3.481</v>
+        <v>9.964</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>11.798</v>
+        <v>34.452</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>5.069</v>
+        <v>15.134</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>2.284</v>
+        <v>6.943</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.278</v>
+        <v>10.879</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.124</v>
+        <v>11.591</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>3.702</v>
+        <v>11.731</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.777</v>
+        <v>3.163</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>2.944</v>
+        <v>9.955</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>4.84</v>
+        <v>14.332</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2.711</v>
+        <v>8.27</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.028</v>
+        <v>0.698</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.13</v>
+        <v>0.194</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>43.791</v>
+        <v>146.788</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>9.417999999999999</v>
+        <v>27.924</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>2.607</v>
+        <v>9.087999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>6.028</v>
+        <v>18.702</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>3.867</v>
+        <v>10.478</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.508</v>
+        <v>1.354</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>6.584</v>
+        <v>18.899</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>2.588</v>
+        <v>7.655</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.469</v>
+        <v>8.295</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>2.451</v>
+        <v>8.156000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>4.689</v>
+        <v>12.04</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.115</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>10.59</v>
+        <v>30.582</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.849</v>
+        <v>5.609</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>3.667</v>
+        <v>11.403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44784.1875</v>
+        <v>45106.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.056</v>
+        <v>6.894</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.507</v>
+        <v>5.339</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.358</v>
+        <v>0.469</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>8.936999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.594</v>
+        <v>12.427</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.437</v>
+        <v>5.114</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>12.795</v>
+        <v>22.625</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.154</v>
+        <v>7.788</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.319</v>
+        <v>3.639</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4</v>
+        <v>5.691</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.667</v>
+        <v>6</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>3.796</v>
+        <v>6.09</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.875</v>
+        <v>1.649</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.079</v>
+        <v>5.118</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.837</v>
+        <v>7.482</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.762</v>
+        <v>4.301</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.022</v>
+        <v>0.459</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.105</v>
+        <v>0.045</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>43.92</v>
+        <v>72.566</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.41</v>
+        <v>14.577</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>2.753</v>
+        <v>4.659</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.153</v>
+        <v>9.805</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.718</v>
+        <v>5.499</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.474</v>
+        <v>0.699</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>6.715</v>
+        <v>11.722</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.632</v>
+        <v>3.869</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.106</v>
+        <v>4.444</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>2.599</v>
+        <v>4.185</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.436</v>
+        <v>6.283</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.092</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>11.537</v>
+        <v>20.425</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.872</v>
+        <v>2.962</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.73</v>
+        <v>5.863</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44784.19444444445</v>
+        <v>45106.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.681</v>
+        <v>20.31</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.352</v>
+        <v>15.36</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.258</v>
+        <v>0.85</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.923</v>
+        <v>43.72</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>5.046</v>
+        <v>36.54</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.288</v>
+        <v>15.74</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>9.728999999999999</v>
+        <v>58.34</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3.442</v>
+        <v>24.18</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.57</v>
+        <v>10.95</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.699</v>
+        <v>16.56</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.183</v>
+        <v>17.69</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>2.512</v>
+        <v>18.56</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.5679999999999999</v>
+        <v>5.04</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.025</v>
+        <v>15.67</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>3.254</v>
+        <v>22.53</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>1.846</v>
+        <v>13.05</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.011</v>
+        <v>0.48</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.053</v>
+        <v>0.47</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>26.836</v>
+        <v>232.84</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>6.336</v>
+        <v>43.85</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.793</v>
+        <v>14.42</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>4.163</v>
+        <v>29.68</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.537</v>
+        <v>15.87</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.314</v>
+        <v>2.07</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>5.002</v>
+        <v>29.5</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.74</v>
+        <v>12.55</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.124</v>
+        <v>11.8</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.718</v>
+        <v>13.11</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.991</v>
+        <v>18.61</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>8.846</v>
+        <v>52.53</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.275</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.466</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44784.20137731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>0.76</v>
+        <v>18.06</v>
       </c>
     </row>
   </sheetData>
